--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>用户登陆表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学校表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,7 +41,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
+    <t>班级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id（省市区首字母+uuid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seatId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,46 +81,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校中文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id（省市区首字母+uuid）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座次id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏班级id、学校id</t>
+    <t>classId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,91 +406,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G8:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="I8:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
+    <row r="8" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
         <v>3</v>
       </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
+    <row r="13" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="K15" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
